--- a/an_kutyalista.xlsx
+++ b/an_kutyalista.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IKT_projektmunka_LB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Programozás\IKT projekt munka Bandi Lorin\IKT_projektmunka_LB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4404584B-BC7F-40B9-9430-594E6CC4A469}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C89D5B0-A6A0-47FA-B1A6-5F14FAED9A97}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11775" xr2:uid="{0E43BA54-C850-45B2-8E0A-09A15BB270E6}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="64">
   <si>
     <t>Málna</t>
   </si>
@@ -127,6 +127,96 @@
   </si>
   <si>
     <t>szetter</t>
+  </si>
+  <si>
+    <t>Bundás</t>
+  </si>
+  <si>
+    <t>labrador</t>
+  </si>
+  <si>
+    <t>Szuszu</t>
+  </si>
+  <si>
+    <t>csivava</t>
+  </si>
+  <si>
+    <t>Karcsi</t>
+  </si>
+  <si>
+    <t>pitbull</t>
+  </si>
+  <si>
+    <t>Don</t>
+  </si>
+  <si>
+    <t>keverék</t>
+  </si>
+  <si>
+    <t>Dunya</t>
+  </si>
+  <si>
+    <t>németjuhász</t>
+  </si>
+  <si>
+    <t>Lüszi</t>
+  </si>
+  <si>
+    <t>kaukázusi juhászkutya</t>
+  </si>
+  <si>
+    <t>Honey</t>
+  </si>
+  <si>
+    <t>Amy</t>
+  </si>
+  <si>
+    <t>rottweiler</t>
+  </si>
+  <si>
+    <t>Beni</t>
+  </si>
+  <si>
+    <t>Bianka</t>
+  </si>
+  <si>
+    <t>Artúr</t>
+  </si>
+  <si>
+    <t>tacskó</t>
+  </si>
+  <si>
+    <t>Gino</t>
+  </si>
+  <si>
+    <t>juhászkutya</t>
+  </si>
+  <si>
+    <t>Lángos</t>
+  </si>
+  <si>
+    <t>Cserkés</t>
+  </si>
+  <si>
+    <t>Dorisz</t>
+  </si>
+  <si>
+    <t>Cheester</t>
+  </si>
+  <si>
+    <t>staffordshire</t>
+  </si>
+  <si>
+    <t>Artemisz</t>
+  </si>
+  <si>
+    <t>Tyson</t>
+  </si>
+  <si>
+    <t>husky</t>
+  </si>
+  <si>
+    <t>Nudli</t>
   </si>
 </sst>
 </file>
@@ -479,11 +569,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1BDF156-297D-4606-ABF0-E5147D6A7844}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomLeft" activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -724,6 +814,443 @@
         <v>26</v>
       </c>
     </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11">
+        <v>2010</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12">
+        <v>2016</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13">
+        <v>2020</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14">
+        <v>2014</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15">
+        <v>2018</v>
+      </c>
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16">
+        <v>2021</v>
+      </c>
+      <c r="C16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17">
+        <v>2020</v>
+      </c>
+      <c r="C17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18">
+        <v>2020</v>
+      </c>
+      <c r="C18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19">
+        <v>2012</v>
+      </c>
+      <c r="C19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20">
+        <v>2011</v>
+      </c>
+      <c r="C20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21">
+        <v>2017</v>
+      </c>
+      <c r="C21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22">
+        <v>2011</v>
+      </c>
+      <c r="C22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23">
+        <v>2020</v>
+      </c>
+      <c r="C23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24">
+        <v>2020</v>
+      </c>
+      <c r="C24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25">
+        <v>2015</v>
+      </c>
+      <c r="C25" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26">
+        <v>2018</v>
+      </c>
+      <c r="C26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27">
+        <v>2020</v>
+      </c>
+      <c r="C27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28">
+        <v>2022</v>
+      </c>
+      <c r="C28" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" t="s">
+        <v>5</v>
+      </c>
+      <c r="G28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29">
+        <v>2017</v>
+      </c>
+      <c r="C29" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/an_kutyalista.xlsx
+++ b/an_kutyalista.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Programozás\IKT projekt munka Bandi Lorin\IKT_projektmunka_LB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C89D5B0-A6A0-47FA-B1A6-5F14FAED9A97}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05349D06-6AE3-4866-8437-2293559464D3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11775" xr2:uid="{0E43BA54-C850-45B2-8E0A-09A15BB270E6}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="78">
   <si>
     <t>Málna</t>
   </si>
@@ -39,15 +39,9 @@
     <t>fajta</t>
   </si>
   <si>
-    <t>tarmat</t>
-  </si>
-  <si>
     <t>nem</t>
   </si>
   <si>
-    <t>ivar</t>
-  </si>
-  <si>
     <t>status</t>
   </si>
   <si>
@@ -217,6 +211,54 @@
   </si>
   <si>
     <t>Nudli</t>
+  </si>
+  <si>
+    <t>Ördög</t>
+  </si>
+  <si>
+    <t>mudi</t>
+  </si>
+  <si>
+    <t>Bodza</t>
+  </si>
+  <si>
+    <t>Puszedli</t>
+  </si>
+  <si>
+    <t>szín</t>
+  </si>
+  <si>
+    <t>zsemle</t>
+  </si>
+  <si>
+    <t>fekete</t>
+  </si>
+  <si>
+    <t>Lehtséges színek:</t>
+  </si>
+  <si>
+    <t>barna</t>
+  </si>
+  <si>
+    <t>fehér</t>
+  </si>
+  <si>
+    <t>szürke</t>
+  </si>
+  <si>
+    <t>foltos</t>
+  </si>
+  <si>
+    <t>tigris csíkos</t>
+  </si>
+  <si>
+    <t>Csibész</t>
+  </si>
+  <si>
+    <t>termet</t>
+  </si>
+  <si>
+    <t>ivartalanítva</t>
   </si>
 </sst>
 </file>
@@ -569,19 +611,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1BDF156-297D-4606-ABF0-E5147D6A7844}">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M9" sqref="M9"/>
+      <selection pane="bottomLeft" activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -592,22 +636,25 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -615,640 +662,852 @@
         <v>2019</v>
       </c>
       <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="I2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>13</v>
       </c>
       <c r="B3">
         <v>2016</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s">
+        <v>68</v>
+      </c>
+      <c r="O3" t="s">
+        <v>69</v>
+      </c>
+      <c r="P3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>19</v>
       </c>
       <c r="B4">
         <v>2020</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="P4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B5">
         <v>2022</v>
       </c>
       <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" t="s">
+        <v>70</v>
+      </c>
+      <c r="P5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>24</v>
       </c>
       <c r="B6">
         <v>2014</v>
       </c>
       <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" t="s">
+        <v>73</v>
+      </c>
+      <c r="P6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>27</v>
       </c>
       <c r="B7">
         <v>2018</v>
       </c>
       <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>28</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>30</v>
       </c>
       <c r="B8">
         <v>2019</v>
       </c>
       <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" t="s">
+        <v>68</v>
+      </c>
+      <c r="P8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>29</v>
-      </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>31</v>
       </c>
       <c r="B9">
         <v>2023</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="I9" t="s">
+        <v>70</v>
+      </c>
+      <c r="P9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B10">
         <v>2020</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="I10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B11">
         <v>2010</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="I11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B12">
         <v>2016</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="I12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B13">
         <v>2020</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="I13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B14">
         <v>2014</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="I14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B15">
         <v>2018</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="I15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B16">
         <v>2021</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="I16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B17">
         <v>2020</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="I17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B18">
         <v>2020</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="I18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B19">
         <v>2012</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F19" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="I19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B20">
         <v>2011</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D20" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="I20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B21">
         <v>2017</v>
       </c>
       <c r="C21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D21" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E21" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F21" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="I21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B22">
         <v>2011</v>
       </c>
       <c r="C22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F22" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G22" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="I22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B23">
         <v>2020</v>
       </c>
       <c r="C23" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E23" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F23" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="I23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B24">
         <v>2020</v>
       </c>
       <c r="C24" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E24" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F24" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="I24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B25">
         <v>2015</v>
       </c>
       <c r="C25" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F25" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G25" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="I25" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B26">
         <v>2018</v>
       </c>
       <c r="C26" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D26" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E26" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F26" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="I26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B27">
         <v>2020</v>
       </c>
       <c r="C27" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F27" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="I27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B28">
         <v>2022</v>
       </c>
       <c r="C28" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" t="s">
+        <v>4</v>
+      </c>
+      <c r="G28" t="s">
         <v>10</v>
       </c>
-      <c r="E28" t="s">
-        <v>16</v>
-      </c>
-      <c r="F28" t="s">
-        <v>5</v>
-      </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B29">
         <v>2017</v>
       </c>
       <c r="C29" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D29" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E29" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F29" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G29" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="I29" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30">
+        <v>2020</v>
+      </c>
+      <c r="C30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" t="s">
+        <v>10</v>
+      </c>
+      <c r="I30" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31">
+        <v>2018</v>
+      </c>
+      <c r="C31" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" t="s">
+        <v>24</v>
+      </c>
+      <c r="I31" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32">
+        <v>2022</v>
+      </c>
+      <c r="C32" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" t="s">
+        <v>16</v>
+      </c>
+      <c r="I32" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33">
+        <v>2016</v>
+      </c>
+      <c r="C33" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" t="s">
+        <v>4</v>
+      </c>
+      <c r="G33" t="s">
+        <v>24</v>
+      </c>
+      <c r="I33" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/an_kutyalista.xlsx
+++ b/an_kutyalista.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Programozás\IKT projekt munka Bandi Lorin\IKT_projektmunka_LB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05349D06-6AE3-4866-8437-2293559464D3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7BED386-4D41-4109-9E2E-244C5DD5482B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11775" xr2:uid="{0E43BA54-C850-45B2-8E0A-09A15BB270E6}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11775" xr2:uid="{0E43BA54-C850-45B2-8E0A-09A15BB270E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -615,7 +615,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K6" sqref="K6"/>
+      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/an_kutyalista.xlsx
+++ b/an_kutyalista.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Programozás\IKT projekt munka Bandi Lorin\IKT_projektmunka_LB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\prog\IKT_projektmunka_LB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7BED386-4D41-4109-9E2E-244C5DD5482B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C269A7B-0133-444B-8D56-B5700B87A7AE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11775" xr2:uid="{0E43BA54-C850-45B2-8E0A-09A15BB270E6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11775" xr2:uid="{0E43BA54-C850-45B2-8E0A-09A15BB270E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="77">
   <si>
     <t>Málna</t>
   </si>
@@ -223,9 +223,6 @@
   </si>
   <si>
     <t>Puszedli</t>
-  </si>
-  <si>
-    <t>szín</t>
   </si>
   <si>
     <t>zsemle</t>
@@ -615,7 +612,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A4:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -636,22 +633,19 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
       </c>
       <c r="H1" t="s">
         <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -676,9 +670,6 @@
       <c r="G2" t="s">
         <v>10</v>
       </c>
-      <c r="I2" t="s">
-        <v>67</v>
-      </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -702,14 +693,11 @@
       <c r="G3" t="s">
         <v>16</v>
       </c>
-      <c r="I3" t="s">
+      <c r="O3" t="s">
         <v>68</v>
       </c>
-      <c r="O3" t="s">
-        <v>69</v>
-      </c>
       <c r="P3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -734,11 +722,8 @@
       <c r="G4" t="s">
         <v>16</v>
       </c>
-      <c r="I4" t="s">
+      <c r="P4" t="s">
         <v>67</v>
-      </c>
-      <c r="P4" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -763,11 +748,8 @@
       <c r="G5" t="s">
         <v>16</v>
       </c>
-      <c r="I5" t="s">
-        <v>70</v>
-      </c>
       <c r="P5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -792,11 +774,8 @@
       <c r="G6" t="s">
         <v>24</v>
       </c>
-      <c r="I6" t="s">
-        <v>73</v>
-      </c>
       <c r="P6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -821,11 +800,8 @@
       <c r="G7" t="s">
         <v>16</v>
       </c>
-      <c r="I7" t="s">
-        <v>67</v>
-      </c>
       <c r="P7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -850,11 +826,8 @@
       <c r="G8" t="s">
         <v>16</v>
       </c>
-      <c r="I8" t="s">
-        <v>68</v>
-      </c>
       <c r="P8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -879,11 +852,8 @@
       <c r="G9" t="s">
         <v>16</v>
       </c>
-      <c r="I9" t="s">
-        <v>70</v>
-      </c>
       <c r="P9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -908,9 +878,6 @@
       <c r="G10" t="s">
         <v>24</v>
       </c>
-      <c r="I10" t="s">
-        <v>68</v>
-      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -934,9 +901,6 @@
       <c r="G11" t="s">
         <v>16</v>
       </c>
-      <c r="I11" t="s">
-        <v>67</v>
-      </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -960,9 +924,6 @@
       <c r="G12" t="s">
         <v>10</v>
       </c>
-      <c r="I12" t="s">
-        <v>67</v>
-      </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -986,9 +947,6 @@
       <c r="G13" t="s">
         <v>24</v>
       </c>
-      <c r="I13" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1012,9 +970,6 @@
       <c r="G14" t="s">
         <v>16</v>
       </c>
-      <c r="I14" t="s">
-        <v>67</v>
-      </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -1038,9 +993,6 @@
       <c r="G15" t="s">
         <v>16</v>
       </c>
-      <c r="I15" t="s">
-        <v>70</v>
-      </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -1064,11 +1016,8 @@
       <c r="G16" t="s">
         <v>24</v>
       </c>
-      <c r="I16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>44</v>
       </c>
@@ -1090,11 +1039,8 @@
       <c r="G17" t="s">
         <v>16</v>
       </c>
-      <c r="I17" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>45</v>
       </c>
@@ -1116,11 +1062,8 @@
       <c r="G18" t="s">
         <v>16</v>
       </c>
-      <c r="I18" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>47</v>
       </c>
@@ -1142,11 +1085,8 @@
       <c r="G19" t="s">
         <v>16</v>
       </c>
-      <c r="I19" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>48</v>
       </c>
@@ -1168,11 +1108,8 @@
       <c r="G20" t="s">
         <v>16</v>
       </c>
-      <c r="I20" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>49</v>
       </c>
@@ -1194,11 +1131,8 @@
       <c r="G21" t="s">
         <v>16</v>
       </c>
-      <c r="I21" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>51</v>
       </c>
@@ -1220,11 +1154,8 @@
       <c r="G22" t="s">
         <v>16</v>
       </c>
-      <c r="I22" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>53</v>
       </c>
@@ -1246,11 +1177,8 @@
       <c r="G23" t="s">
         <v>16</v>
       </c>
-      <c r="I23" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>54</v>
       </c>
@@ -1272,11 +1200,8 @@
       <c r="G24" t="s">
         <v>16</v>
       </c>
-      <c r="I24" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>55</v>
       </c>
@@ -1298,11 +1223,8 @@
       <c r="G25" t="s">
         <v>16</v>
       </c>
-      <c r="I25" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>56</v>
       </c>
@@ -1324,11 +1246,8 @@
       <c r="G26" t="s">
         <v>16</v>
       </c>
-      <c r="I26" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>58</v>
       </c>
@@ -1350,11 +1269,8 @@
       <c r="G27" t="s">
         <v>24</v>
       </c>
-      <c r="I27" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>59</v>
       </c>
@@ -1376,11 +1292,8 @@
       <c r="G28" t="s">
         <v>10</v>
       </c>
-      <c r="I28" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>61</v>
       </c>
@@ -1402,11 +1315,8 @@
       <c r="G29" t="s">
         <v>10</v>
       </c>
-      <c r="I29" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>62</v>
       </c>
@@ -1428,11 +1338,8 @@
       <c r="G30" t="s">
         <v>10</v>
       </c>
-      <c r="I30" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>64</v>
       </c>
@@ -1454,11 +1361,8 @@
       <c r="G31" t="s">
         <v>24</v>
       </c>
-      <c r="I31" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>65</v>
       </c>
@@ -1480,13 +1384,10 @@
       <c r="G32" t="s">
         <v>16</v>
       </c>
-      <c r="I32" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B33">
         <v>2016</v>
@@ -1505,9 +1406,6 @@
       </c>
       <c r="G33" t="s">
         <v>24</v>
-      </c>
-      <c r="I33" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>
